--- a/ChangeModels/change.xlsx
+++ b/ChangeModels/change.xlsx
@@ -197,13 +197,78 @@
 </t>
   </si>
   <si>
-    <t>http://onto.kul.pl/change/gfo/</t>
-  </si>
-  <si>
     <t>tripletemporalised</t>
   </si>
   <si>
+    <t>http://onto.kul.pl/change/temporalisedtriples</t>
+  </si>
+  <si>
+    <t>NameNesting</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX gfo:&lt;http://www.onto-med.de/ontologies/gfo.owl/&gt;
+PREFIX namenesting:&lt;http://onto.kul.pl/change/namenesting/&gt;
+CONSTRUCT 
+{
+?legalEntityAddressBlob a namenesting:LegalEntityAddressBlob;
+namenesting:updateDate ?updateDate ;
+namenesting:hasHeadquartersAddress ?headquartersAddress ;
+namenesting:hasEntity ?legalEntity.
+?legalEntityNameBlob a namenesting:LegalEntityNameBlob;
+namenesting:updateDate ?updateDate ;
+namenesting:hasLegalName ?legalName ;
+namenesting:hasEntity ?legalEntity.
+?headquartersAddress a namenesting:Address ;
+namenesting:hasCity ?city ;
+namenesting:hasCountry ?country ;
+namenesting:hasPostalCode ?postalCode ;
+namenesting:hasStreetAddress ?streetAddress ;
+namenesting:hasSubdivision ?subdivision .
+namenesting:LegalEntityAddressBlob a rdfs:Class .
+namenesting:LegalEntityNameBlob a rdfs:Class .
+namenesting:hasHeadquartersAddress a owl:ObjectProperty . 
+namenesting:hasCountry a owl:ObjectProperty .  
+namenesting:hasSubdivision a owl:ObjectProperty . 
+namenesting:hasEntity a owl:ObjectProperty .
+namenesting:hasLegalName a owl:DatatypeProperty .
+namenesting:hasCity a owl:DatatypeProperty .
+namenesting:hasPostalCode a owl:DatatypeProperty .
+namenesting:hasStreetAddress a owl:DatatypeProperty .
+namenesting:updateDate a owl:DatatypeProperty.
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation .
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasUpdateDate ?updateDate ;
+:hasLegalName ?legalName.
+?headquartersAddress a :Address ;
+:hasCity ?city ;
+:hasCountry ?country ;
+:hasPostalCode ?postalCode ;
+:hasStreetAddress ?streetAddress ;
+:hasSubdivision ?subdivision .
+BIND(IRI(CONCAT("http://onto.kul.pl/change/namenesting/legalEntityAddressBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityAddressBlob)
+BIND(IRI(CONCAT("http://onto.kul.pl/change/namenesting/legalEntityNameBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityNameBlob)
+}
+</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/namenesting</t>
+  </si>
+  <si>
+    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/gfo&gt; { ?s a ?c} .}</t>
+  </si>
+  <si>
+    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/temporalisedtriples&gt; { ?s a ?c} .}</t>
+  </si>
+  <si>
+    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/namenesting&gt; { ?s a ?c} .}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
 PREFIX tripletemporalised:&lt;http://onto.kul.pl/change/tripletemporalised/&gt;
 CONSTRUCT 
 {
@@ -252,76 +317,10 @@
 :hasPostalCode ?postalCode ;
 :hasStreetAddress ?streetAddress ;
 :hasSubdivision ?subdivision .
-}
-</t>
-  </si>
-  <si>
-    <t>http://onto.kul.pl/change/temporalisedtriples</t>
-  </si>
-  <si>
-    <t>NameNesting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
-PREFIX gfo:&lt;http://www.onto-med.de/ontologies/gfo.owl/&gt;
-PREFIX namenesting:&lt;http://onto.kul.pl/change/namenesting/&gt;
-CONSTRUCT 
-{
-?legalEntityAddressBlob a namenesting:LegalEntityAddressBlob;
-namenesting:updateDate ?updateDate ;
-namenesting:hasHeadquartersAddress ?headquartersAddress ;
-namenesting:hasEntity ?legalEntity.
-?legalEntityNameBlob a namenesting:LegalEntityNameBlob;
-namenesting:updateDate ?updateDate ;
-namenesting:hasLegalName ?legalName ;
-namenesting:hasEntity ?legalEntity.
-?headquartersAddress a namenesting:Address ;
-namenesting:hasCity ?city ;
-namenesting:hasCountry ?country ;
-namenesting:hasPostalCode ?postalCode ;
-namenesting:hasStreetAddress ?streetAddress ;
-namenesting:hasSubdivision ?subdivision .
-namenesting:LegalEntityAddressBlob a rdfs:Class .
-namenesting:LegalEntityNameBlob a rdfs:Class .
-namenesting:hasHeadquartersAddress a owl:ObjectProperty . 
-namenesting:hasCountry a owl:ObjectProperty .  
-namenesting:hasSubdivision a owl:ObjectProperty . 
-namenesting:hasEntity a owl:ObjectProperty .
-namenesting:hasLegalName a owl:DatatypeProperty .
-namenesting:hasCity a owl:DatatypeProperty .
-namenesting:hasPostalCode a owl:DatatypeProperty .
-namenesting:hasStreetAddress a owl:DatatypeProperty .
-namenesting:updateDate a owl:DatatypeProperty.
-}
-WHERE 
-{
-?legalEntity a :LegalEntity ;
-:hasManifestation ?manifestation .
-?manifestation :hasHeadquartersAddress ?headquartersAddress ;
-:hasUpdateDate ?updateDate ;
-:hasLegalName ?legalName.
-?headquartersAddress a :Address ;
-:hasCity ?city ;
-:hasCountry ?country ;
-:hasPostalCode ?postalCode ;
-:hasStreetAddress ?streetAddress ;
-:hasSubdivision ?subdivision .
-BIND(IRI(CONCAT("http://onto.kul.pl/change/namenesting/legalEntityAddressBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityAddressBlob)
-BIND(IRI(CONCAT("http://onto.kul.pl/change/namenesting/legalEntityNameBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityNameBlob)
-}
-</t>
-  </si>
-  <si>
-    <t>http://onto.kul.pl/change/namenesting</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/gfo&gt; { ?s a ?c} .}</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/temporalisedtriples&gt; { ?s a ?c} .}</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/namenesting&gt; { ?s a ?c} .}</t>
+}</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/gfo</t>
   </si>
 </sst>
 </file>
@@ -423,7 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -449,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -742,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,8 +754,6 @@
     <col min="2" max="2" width="86" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -770,81 +770,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
+    <row r="5" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
+    <row r="6" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://onto.kul.pl/change/gfo/"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/ChangeModels/change.xlsx
+++ b/ChangeModels/change.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trypuz/NetBeansProjects/ChangeModels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trypuz/git_repo/change/ChangeModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>context</t>
   </si>
@@ -89,9 +89,6 @@
 } </t>
   </si>
   <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/bfo-tqc&gt; { ?s a &lt;http://purl.obolibrary.org/obo/BFO_0000030&gt;} .}</t>
-  </si>
-  <si>
     <t>query 1</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>http://lei.info/gleio</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://lei.info/gleio&gt; { ?s a &lt;http://lei.info/gleio/VariableEntity&gt;} .}</t>
   </si>
   <si>
     <t>gfo</t>
@@ -257,15 +251,6 @@
   </si>
   <si>
     <t>http://onto.kul.pl/change/namenesting</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/gfo&gt; { ?s a ?c} .}</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/temporalisedtriples&gt; { ?s a ?c} .}</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/namenesting&gt; { ?s a ?c} .}</t>
   </si>
   <si>
     <t>PREFIX : &lt;http://lei.info/gleio/&gt;
@@ -321,6 +306,141 @@
   </si>
   <si>
     <t>http://onto.kul.pl/change/gfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX reif: &lt;http://onto.kul.pl/change/reification/&gt;
+CONSTRUCT {
+?legalEntity a reif:LegalEntity ;
+        reif:hasReficationRelation ?manifestation.
+?manifestation a reif:RefificationRelation ;
+            reif:hasRefificationRelationCreationDate ?updateDate ;
+            reif:hasLegalEntityHeadquartersAddress ?headquartersAddress ;
+            reif:hasLegalEntityLegalName ?legalName.
+?headquartersAddress a :Address ;
+                     :hasCity ?city ;
+                     :hasCountry ?country ;
+                     :hasPostalCode ?postalCode ;
+                     :hasStreetAddress ?streetAddress ;
+                     :hasSubdivision ?subdivision .
+?country a :Country .
+?subdivision a :Subdivision . 
+reif:hasLegalEntityHeadquartersAddress a owl:ObjectProperty .  
+reif:hasReficationRelation a owl:ObjectProperty .  
+:hasCountry a owl:ObjectProperty .  
+:hasSubdivision a owl:ObjectProperty . 
+reif:hasRefificationRelationCreationDate a owl:DatatypeProperty .  
+reif:hasLegalEntityLegalName a owl:DatatypeProperty .
+:hasCity a owl:DatatypeProperty .
+:hasPostalCode a owl:DatatypeProperty .
+:hasStreetAddress a owl:DatatypeProperty .
+}
+WHERE {
+ ?legalEntity :hasManifestation ?manifestation .
+ ?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+               :hasUpdateDate ?updateDate ;
+               :hasLegalName ?legalName.
+ ?headquartersAddress :hasCity ?city ;
+                     :hasCountry ?country ;
+                     :hasPostalCode ?postalCode ;
+                     :hasStreetAddress ?streetAddress ;
+                     :hasSubdivision ?subdivision .
+} </t>
+  </si>
+  <si>
+    <t>reification</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/reification/</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/gfo/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntitySlice :proper_part_of ?legalEntity .
+?legalEntitySlice :updateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/tripletemporalised/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?axiom rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasLegalName ;
+owl:annotatedTarget ?legalName ;
+:updateDate ?updateDate .
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/namenesting/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntityNameBlob :hasEntity ?legalEntity ;
+:updateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity :hasManifestation ?manifestation .
+?manifestation :hasUpdateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/5493004R493UTY6GT060#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX reif: &lt;http://onto.kul.pl/change/reification/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity reif:hasReficationRelation ?manifestation .
+?manifestation reif:hasRefificationRelationCreationDate ?updateDate ;
+reif:hasLegalEntityLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/5493004R493UTY6GT060#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+?legalEntityHistory &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase .
+?legalEntityPhase &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation .
+?manifestation :hasUpdateDate ?updateDate ;
+  :hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/5493004R493UTY6GT060#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
   </si>
 </sst>
 </file>
@@ -742,15 +862,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23" style="6" customWidth="1"/>
     <col min="2" max="2" width="86" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
@@ -767,49 +887,49 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409" x14ac:dyDescent="0.2">
@@ -823,21 +943,35 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ChangeModels/change.xlsx
+++ b/ChangeModels/change.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trypuz/NetBeansProjects/ChangeModels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.trypuz/NetBeansProjects/ChangeModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="construct" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,190 +27,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>context</t>
   </si>
   <si>
-    <t>http://onto.kul.pl/change/bfo-tqc</t>
-  </si>
-  <si>
     <t>ontology name</t>
   </si>
   <si>
-    <t>TQC</t>
-  </si>
-  <si>
     <t>construct query</t>
   </si>
   <si>
-    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
-CONSTRUCT {
-?legalEntity a &lt;http://purl.obolibrary.org/obo/BFO_0000030&gt; ;
-               &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
-?legalEntityHistory a &lt;http://purl.obolibrary.org/obo/BFO_0000182&gt; ;
-  &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase  .
-?legalEntityPhase a &lt;http://www.halbordnung.de/ontologies/tqc.owl#2a217d5d-4ae1-547e-a46e-65f6f2504fc2&gt; ;
- &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation .
-?manifestation a &lt;http://www.halbordnung.de/ontologies/tqc.owl#def5f6c5-f1aa-56b3-a188-ff3790d91652&gt; ;
-               :hasUpdateDate ?updateDate ;
-        :hasHeadquartersAddress ?headquartersAddress ;
-               :hasLegalName ?legalName.
-?headquartersAddress a :Address ;
-                     :hasCity ?city ;
-                     :hasCountry ?country ;
-                     :hasPostalCode ?postalCode ;
-                     :hasStreetAddress ?streetAddress ;
-                     :hasSubdivision ?subdivision .
-?country a :Country .
-?subdivision a :Subdivision . 
-:hasHeadquartersAddress a owl:ObjectProperty .  
-:hasManifestation a owl:ObjectProperty .  
-:hasCountry a owl:ObjectProperty .  
-:hasSubdivision a owl:ObjectProperty . 
-:hasUpdateDate a owl:DatatypeProperty .  
-:hasLegalName a owl:DatatypeProperty .
-:hasCity a owl:DatatypeProperty .
-:hasPostalCode a owl:DatatypeProperty .
-:hasStreetAddress a owl:DatatypeProperty .
-}
-WHERE {
- ?legalEntity :hasManifestation ?manifestation .
- ?manifestation :hasHeadquartersAddress ?headquartersAddress ;
-               :hasUpdateDate ?updateDate ;
-               :hasLegalName ?legalName.
- ?headquartersAddress :hasCity ?city ;
-                     :hasCountry ?country ;
-                     :hasPostalCode ?postalCode ;
-                     :hasStreetAddress ?streetAddress ;
-                     :hasSubdivision ?subdivision .
-BIND( IRI(CONCAT(STR(?legalEntity),"_history")) as ?legalEntityHistory) .
-BIND( IRI(CONCAT(STR(?manifestation),"_phase")) as ?legalEntityPhase) .
-} </t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/bfo-tqc&gt; { ?s a &lt;http://purl.obolibrary.org/obo/BFO_0000030&gt;} .}</t>
-  </si>
-  <si>
-    <t>query 1</t>
+    <t>http://onto.kul.pl/change/namenesting/</t>
+  </si>
+  <si>
+    <t>http://lei.info/gleio/</t>
   </si>
   <si>
     <t>PREFIX : &lt;http://lei.info/gleio/&gt;
-CONSTRUCT {
-?legalEntity a :VariableEntity ;
-               :hasManifestation ?manifestation .
-?manifestation a :VariableEntityManifestation ;
-               :hasUpdateDate ?updateDate ;
-        :hasHeadquartersAddress ?headquartersAddress ;
-               :hasLegalName ?legalName.
-?headquartersAddress a :Address ;
-                     :hasCity ?city ;
-                     :hasCountry ?country ;
-                     :hasPostalCode ?postalCode ;
-                     :hasStreetAddress ?streetAddress ;
-                     :hasSubdivision ?subdivision .
-?country a :Country .
-?subdivision a :Subdivision . 
-:hasHeadquartersAddress a owl:ObjectProperty .  
-:hasManifestation a owl:ObjectProperty .  
-:hasCountry a owl:ObjectProperty .  
-:hasSubdivision a owl:ObjectProperty . 
-:hasUpdateDate a owl:DatatypeProperty .  
-:hasLegalName a owl:DatatypeProperty .
-:hasCity a owl:DatatypeProperty .
-:hasPostalCode a owl:DatatypeProperty .
-:hasStreetAddress a owl:DatatypeProperty .
-}
-WHERE {
- ?legalEntity :hasManifestation ?manifestation .
- ?manifestation :hasHeadquartersAddress ?headquartersAddress ;
-               :hasUpdateDate ?updateDate ;
-               :hasLegalName ?legalName.
- ?headquartersAddress :hasCity ?city ;
-                     :hasCountry ?country ;
-                     :hasPostalCode ?postalCode ;
-                     :hasStreetAddress ?streetAddress ;
-                     :hasSubdivision ?subdivision .
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity :hasManifestation ?manifestation .
+?manifestation :hasUpdateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/namenesting/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntityNameBlob :hasEntity ?legalEntity ;
+:updateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/namenesting/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?legalEntityNameBlob1 :hasEntity ?legalEntity ;
+:updateDate ?updateDate1 ;
+:hasLegalName ?legalName1.
+?legalEntityNameBlob2 :hasEntity ?legalEntity ;
+:updateDate ?updateDate2 ;
+:hasLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
 }</t>
   </si>
   <si>
-    <t>GLEIO</t>
-  </si>
-  <si>
-    <t>http://lei.info/gleio</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://lei.info/gleio&gt; { ?s a &lt;http://lei.info/gleio/VariableEntity&gt;} .}</t>
-  </si>
-  <si>
-    <t>gfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
-PREFIX gfo:&lt;http://www.onto-med.de/ontologies/gfo.owl/&gt;
-PREFIX gfochange:&lt;http://onto.kul.pl/change/gfo/&gt;
-CONSTRUCT 
-{
-?legalEntity a gfochange:LegalEntity.
-?headquartersAddress a gfochange:Address .
-?legalEntitySlice a gfochange:LegalEntity;
-gfo:proper_part_of ?legalEntity;
-gfochange:hasHeadquartersAddress ?addressSlice;
-?hasLegalName ?legalName ;
-gfochange:updateDate ?updateDate .
-?addressSlice a gfochange:Address;
-gfo:proper_part_of ?headquartersAddress;
-gfochange:hasCity ?city ;
-gfochange:hasCountry ?country ;
-gfochange:hasPostalCode ?postalCode ;
-gfochange:hasStreetAddress ?streetAddress ;
-gfochange:hasSubdivision ?subdivision;
-gfochange:updateDate ?updateDate .
-gfochange:LegalEntity a rdfs:Class .
-gfochange:Address a rdfs:Class .
-gfochange:hasHeadquartersAddress a owl:ObjectProperty . 
-gfo:proper_part_of a owl:ObjectProperty .  
-gfochange:hasCountry a owl:ObjectProperty .  
-gfochange:hasSubdivision a owl:ObjectProperty . 
-gfochange:hasLegalName a owl:DatatypeProperty .
-gfochange:hasCity a owl:DatatypeProperty .
-gfochange:hasPostalCode a owl:DatatypeProperty .
-gfochange:hasStreetAddress a owl:DatatypeProperty .
-gfochange:updateDate a owl:DatatypeProperty.
-}
-WHERE 
-{
-?legalEntity a :LegalEntity ;
-:hasManifestation ?manifestation .
-?manifestation :hasHeadquartersAddress ?headquartersAddress ;
-:hasUpdateDate ?updateDate ;
+    <t>http://onto.kul.pl/change/states/</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/states/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity a :LegalEntity;
+:participatesIn ?entityState .
+?entityState :updateDate ?updateDate ;
 :hasLegalName ?legalName.
-?headquartersAddress a :Address ;
-:hasCity ?city ;
-:hasCountry ?country ;
-:hasPostalCode ?postalCode ;
-:hasStreetAddress ?streetAddress ;
-:hasSubdivision ?subdivision .
-BIND(IRI(CONCAT("http://onto.kul.pl/change/gfo/LegaEntityAt_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntitySlice)
-BIND(IRI(CONCAT("http://onto.kul.pl/change/gfo/AddressAt_", ENCODE_FOR_URI(STR(?updateDate)))) As ?addressSlice)
-}
-</t>
-  </si>
-  <si>
-    <t>tripletemporalised</t>
-  </si>
-  <si>
-    <t>http://onto.kul.pl/change/temporalisedtriples</t>
-  </si>
-  <si>
-    <t>NameNesting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
-PREFIX gfo:&lt;http://www.onto-med.de/ontologies/gfo.owl/&gt;
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/states/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity;
+:participatesIn ?entityState1;
+:participatesIn ?entityState2.
+?entityState1 :updateDate ?updateDate1 ;
+:hasLegalName ?legalName1.
+?entityState2 :updateDate ?updateDate2 ;
+:hasLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
 PREFIX namenesting:&lt;http://onto.kul.pl/change/namenesting/&gt;
 CONSTRUCT 
 {
+?legalEntity a namenesting:LegalEntity.
 ?legalEntityAddressBlob a namenesting:LegalEntityAddressBlob;
 namenesting:updateDate ?updateDate ;
 namenesting:hasHeadquartersAddress ?headquartersAddress ;
@@ -227,6 +141,7 @@
 namenesting:hasSubdivision ?subdivision .
 namenesting:LegalEntityAddressBlob a rdfs:Class .
 namenesting:LegalEntityNameBlob a rdfs:Class .
+namenesting:LegalEntity a rdfs:Class .
 namenesting:hasHeadquartersAddress a owl:ObjectProperty . 
 namenesting:hasCountry a owl:ObjectProperty .  
 namenesting:hasSubdivision a owl:ObjectProperty . 
@@ -240,9 +155,130 @@
 WHERE 
 {
 ?legalEntity a :LegalEntity ;
-:hasManifestation ?manifestation .
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
 ?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+BIND(IRI(CONCAT(STR(?legalEntity), "AddressBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityAddressBlob)
+BIND(IRI(CONCAT(STR(?legalEntity), "NameBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityNameBlob)
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX states:&lt;http://onto.kul.pl/change/states/&gt;
+CONSTRUCT 
+{
+?legalEntity a states:LegalEntity;
+states:participatesIn ?entityState .
+?headquartersAddress a states:Address ;
+states:participatesIn ?entityState;
+states:hasCity ?city ;
+states:hasCountry ?country ;
+states:hasPostalCode ?postalCode ;
+states:hasStreetAddress ?streetAddress ;
+states:hasSubdivision ?subdivision;
+states:updateDate ?updateDate .
+?entityState a states:State;
+states:hasLegalName ?legalName ;
+states:updateDate ?updateDate .
+states:LegalEntity a rdfs:Class .
+states:Address a rdfs:Class .
+states:State a rdfs:Class .
+states:hasHeadquartersAddress a owl:ObjectProperty . 
+states:hasCountry a owl:ObjectProperty .  
+states:hasSubdivision a owl:ObjectProperty . 
+states:hasLegalName a owl:DatatypeProperty .
+states:hasCity a owl:DatatypeProperty .
+states:hasPostalCode a owl:DatatypeProperty .
+states:hasStreetAddress a owl:DatatypeProperty .
+states:participatesIn a owl:DatatypeProperty .
+states:updateDate a owl:DatatypeProperty.
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+BIND(IRI(CONCAT(STR(?legalEntity), "StateAt_", ENCODE_FOR_URI(STR(?updateDate)))) As ?entityState )
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+CONSTRUCT 
+{
+?legalEntity a :LegalEntity ;
+ :hasManifestation ?manifestation .
+?manifestation a :VariableEntityManifestation ;
 :hasUpdateDate ?updateDate ;
+:hasHeadquartersAddress ?headquartersAddress ;
 :hasLegalName ?legalName.
 ?headquartersAddress a :Address ;
 :hasCity ?city ;
@@ -250,31 +286,366 @@
 :hasPostalCode ?postalCode ;
 :hasStreetAddress ?streetAddress ;
 :hasSubdivision ?subdivision .
-BIND(IRI(CONCAT("http://onto.kul.pl/change/namenesting/legalEntityAddressBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityAddressBlob)
-BIND(IRI(CONCAT("http://onto.kul.pl/change/namenesting/legalEntityNameBlob_", ENCODE_FOR_URI(STR(?updateDate)))) As ?legalEntityNameBlob)
-}
-</t>
-  </si>
-  <si>
-    <t>http://onto.kul.pl/change/namenesting</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/gfo&gt; { ?s a ?c} .}</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/temporalisedtriples&gt; { ?s a ?c} .}</t>
-  </si>
-  <si>
-    <t>SELECT ?s  WHERE {GRAPH &lt;http://onto.kul.pl/change/namenesting&gt; { ?s a ?c} .}</t>
+?country a :Country .
+?subdivision a :Subdivision . 
+:hasHeadquartersAddress a owl:ObjectProperty .  
+:hasManifestation a owl:ObjectProperty .  
+:hasCountry a owl:ObjectProperty .  
+:hasSubdivision a owl:ObjectProperty . 
+:hasUpdateDate a owl:DatatypeProperty .  
+:hasLegalName a owl:DatatypeProperty .
+:hasCity a owl:DatatypeProperty .
+:hasPostalCode a owl:DatatypeProperty .
+:hasStreetAddress a owl:DatatypeProperty .
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+}</t>
+  </si>
+  <si>
+    <t>reification</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/reification/</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/bfo-tqc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+ PREFIX tqc: &lt;http://onto.kul.pl/change/bfo-tqc/&gt;
+ CONSTRUCT {
+ ?legalEntity a tqc:LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+ ?legalEntityHistory a &lt;http://purl.obolibrary.org/obo/BFO_0000182&gt; ;
+   &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase  .
+ ?legalEntityPhase a &lt;http://www.halbordnung.de/ontologies/tqc.owl#2a217d5d-4ae1-547e-a46e-65f6f2504fc2&gt; ;
+  &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation .
+ ?manifestation a &lt;http://www.halbordnung.de/ontologies/tqc.owl#def5f6c5-f1aa-56b3-a188-ff3790d91652&gt; ;
+                tqc:hasUpdateDate ?updateDate ;
+         tqc:hasHeadquartersAddress ?headquartersAddress ;
+                tqc:hasLegalName ?legalName.
+ ?headquartersAddress a tqc:Address ;
+                      tqc:hasCity ?city ;
+                      tqc:hasCountry ?country ;
+                      tqc:hasPostalCode ?postalCode ;
+                      tqc:hasStreetAddress ?streetAddress ;
+                      tqc:hasSubdivision ?subdivision .
+ ?country a tqc:Country .
+ ?subdivision a tqc:Subdivision . 
+ tqc:hasHeadquartersAddress a owl:ObjectProperty .  
+ tqc:hasManifestation a owl:ObjectProperty .  
+ tqc:hasCountry a owl:ObjectProperty .  
+ tqc:hasSubdivision a owl:ObjectProperty . 
+ tqc:hasUpdateDate a owl:DatatypeProperty .  
+ tqc:hasLegalName a owl:DatatypeProperty .
+ tqc:hasCity a owl:DatatypeProperty .
+ tqc:hasPostalCode a owl:DatatypeProperty .
+ tqc:hasStreetAddress a owl:DatatypeProperty .
+ }
+ WHERE {
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+ BIND( IRI(CONCAT(STR(?legalEntity),"_history")) as ?legalEntityHistory) .
+ BIND( IRI(CONCAT(STR(?manifestation),"_phase")) as ?legalEntityPhase) .
+ } </t>
+  </si>
+  <si>
+    <t>Find all LEs whose legal name has (ever) changed</t>
+  </si>
+  <si>
+    <t>Find all LEs that never moved to another city</t>
+  </si>
+  <si>
+    <t>Count all changes of LEs</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/bfo-tqc/&gt;
+SELECT ?legalEntity (count(distinct ?manifestation) as ?countChanges) 
+WHERE 
+{
+ ?legalEntity a :LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+ ?legalEntityHistory a &lt;http://purl.obolibrary.org/obo/BFO_0000182&gt; ;
+   &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase  .
+ ?legalEntityPhase a &lt;http://www.halbordnung.de/ontologies/tqc.owl#2a217d5d-4ae1-547e-a46e-65f6f2504fc2&gt; ;
+  &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
   </si>
   <si>
     <t>PREFIX : &lt;http://lei.info/gleio/&gt;
-PREFIX tripletemporalised:&lt;http://onto.kul.pl/change/tripletemporalised/&gt;
+SELECT ?legalEntity (count(distinct ?manifestation) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity; 
+             :hasManifestation ?manifestation .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>Find lei's legal name before 2016-09-23T10:20:13+05:30 (lei=549300U5FI25Y6MFOS85)</t>
+  </si>
+  <si>
+    <t>contextslice</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>manifestation</t>
+  </si>
+  <si>
+    <t>namenesting</t>
+  </si>
+  <si>
+    <t>perdurantism_individualconcept</t>
+  </si>
+  <si>
+    <t>perdurantism</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>statementabstraction</t>
+  </si>
+  <si>
+    <t>statementreification</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>tqc</t>
+  </si>
+  <si>
+    <t>tropes</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/contextslice/</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/contextslice/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity :hasProjection ?entityContextSlice .
+?entityContextSlice :hasLegalName ?legalName ;
+     :hasContex ?context .
+?context :updateDate ?updateDate .
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/contextslice/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity :hasProjection ?entityContextSlice1 , ?entityContextSlice2 .
+?entityContextSlice1 :hasLegalName ?legalName1 ;
+     :hasContex ?context1 .
+?context1 :updateDate ?updateDate1 .
+?entityContextSlice2 :hasLegalName ?legalName2 ;
+     :hasContex ?context2 .
+?context2 :updateDate ?updateDate2 .
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/perdurantism_individualconcept/</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://lei.info/gleio/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+ :hasManifestation ?manifestation1 , ?manifestation2 .
+?manifestation1 :hasUpdateDate ?updateDate1 ;
+    :hasLegalName ?legalName1.
+?manifestation2 :hasUpdateDate ?updateDate2 ;
+    :hasLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/perdurantism/</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/situation/</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/tropes/</t>
+  </si>
+  <si>
+    <t>PREFIX tr: &lt;http://onto.kul.pl/change/tropes/&gt;
+PREFIX : &lt;http://lei.info/gleio/&gt;
 CONSTRUCT 
 {
-?legalEntity a tripletemporalised:LegalEntity;
-tripletemporalised:hasHeadquartersAddress ?headquartersAddress;
-tripletemporalised:hasLegalName ?legalName.
+?legalEntity a tr:Object .
+?relatorHeadquartersAddress tr:mediates ?legalEntity , ?headquartersAddress .
+?relatorHeadquartersAddressTE a tr:TemporalExtent ;
+       tr:hasUpdateDate ?updateDate .
+?headquartersAddress a tr:Address ;
+tr:inhareIn ?legalEntity ;
+tr:hasTimeExtent ?relatorHeadquartersAddressTE ;
+tr:hasCity ?city ;
+tr:hasCountry ?country ;
+tr:hasPostalCode ?postalCode ;
+tr:hasStreetAddress ?streetAddress ;
+tr:hasSubdivision ?subdivision .
+?relatorLegalName tr:mediates ?legalEntity , ?legalNameIRI .
+?relatorLegalNameTE a tr:TemporalExtent ;
+       tr:hasUpdateDate ?updateDate .
+?legalNameIRI a tr:LegalName ;
+   tr:inhareIn ?legalEntity ;
+   tr:hasTimeExtent ?relatorLegalNameTE ;
+   tr:hasLegalName ?legalName .
+?country a tr:Country .
+?subdivision a tr:Subdivision . 
+tr:mediates a owl:ObjectProperty .  
+tr:inhareIn a owl:ObjectProperty .  
+tr:hasCountry a owl:ObjectProperty .  
+tr:hasSubdivision a owl:ObjectProperty . 
+tr:hasUpdateDate a owl:DatatypeProperty .  
+tr:hasLegalName a owl:DatatypeProperty .
+tr:hasCity a owl:DatatypeProperty .
+tr:hasPostalCode a owl:DatatypeProperty .
+tr:hasStreetAddress a owl:DatatypeProperty .
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+BIND( IRI(CONCAT(STR(?headquartersAddress),"_Relator")) as ?relatorHeadquartersAddress) .
+BIND( IRI(CONCAT(STR(?headquartersAddress),"_TemporalExtent")) as ?relatorHeadquartersAddressTE) .
+BIND( IRI(CONCAT(STR(?manifestation),"_legalName")) as ?legalNameIRI) .
+BIND( IRI(CONCAT(STR(?manifestation),"_legalNameRelator")) as ?relatorLegalName) .
+BIND( IRI(CONCAT(STR(?manifestation),"_legalNameTE")) as ?relatorLegalNameTE) .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX tripletemporalised:&lt;http://onto.kul.pl/change/statementreification/&gt;
+CONSTRUCT 
+{
+?legalEntity a tripletemporalised:LegalEntity.
 [ rdf:type owl:Axiom ;
    owl:annotatedSource ?legalEntity ;
    owl:annotatedProperty tripletemporalised:hasHeadquartersAddress ;
@@ -307,20 +678,1186 @@
 WHERE 
 {
 ?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+}</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/statementreification/</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementreification/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?axiom rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasLegalName ;
+owl:annotatedTarget ?legalName ;
+:updateDate ?updateDate .
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementreification/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?axiom1 rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasLegalName ;
+owl:annotatedTarget ?legalName1 ;
+:updateDate ?updateDate1  .
+?axiom2 rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasLegalName ;
+owl:annotatedTarget ?legalName2 ;
+:updateDate ?updateDate2 .
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/perdurantism_individualconcept/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+ :hasTemporalPart ?manifestation .
+?manifestation :hasUpdateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/perdurantism_individualconcept/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+ :hasTemporalPart ?manifestation1 , ?manifestation2 .
+?manifestation1 :hasUpdateDate ?updateDate1 ;
+:hasLegalName ?legalName1.
+?manifestation2 :hasUpdateDate ?updateDate2 ;
+:hasLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/perdurantism_individualconcept/&gt;
+SELECT ?legalEntity (count(distinct ?manifestation) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+ :hasTemporalPart ?manifestation .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/statementabstraction/</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX temporal:&lt;http://onto.kul.pl/change/statementabstraction/&gt;
+CONSTRUCT 
+{
+?legalEntity a temporal:LegalEntity;
+?hasHeadquartersAddress ?headquartersAddress ;
+?hasLegalName ?legalName .
+?headquartersAddress a temporal:Address ;
+temporal:hasCity ?city ;
+temporal:hasCountry ?country ;
+temporal:hasPostalCode ?postalCode ;
+temporal:hasStreetAddress ?streetAddress ;
+temporal:hasSubdivision ?subdivision .
+?hasHeadquartersAddress a owl:ObjectProperty ;
+rdfs:subPropertyOf temporal:hasHeadquartersAddress ;
+temporal:updateDate ?updateDate .
+?hasLegalName a owl:DatatypeProperty ;
+rdfs:subPropertyOf temporal:hasLegalName;
+temporal:updateDate ?updateDate .
+?headquartersAddress a :Address ;
+temporal:hasCity ?city ;
+temporal:hasCountry ?country ;
+temporal:hasPostalCode ?postalCode ;
+temporal:hasStreetAddress ?streetAddress ;
+temporal:hasSubdivision ?subdivision .
+temporal:LegalEntity a rdfs:Class .
+temporal:Address a rdfs:Class .
+temporal:hasHeadquartersAddress a owl:ObjectProperty . 
+temporal:hasCountry a owl:ObjectProperty . 
+temporal:hasSubdivision a owl:ObjectProperty . 
+temporal:hasLegalName a owl:DatatypeProperty .
+temporal:hasCity a owl:DatatypeProperty .
+temporal:hasPostalCode a owl:DatatypeProperty .
+temporal:hasStreetAddress a owl:DatatypeProperty .
+temporal:updateDate a owl:AnnotationProperty.
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+BIND(IRI(CONCAT("http://onto.kul.pl/change/temporalisedrelations/hasHeadquartersAddressAt_", ENCODE_FOR_URI(STR(?updateDate)))) As ?hasHeadquartersAddress)
+BIND(IRI(CONCAT("http://onto.kul.pl/change/temporalisedrelations/hasLegalNameAt_", ENCODE_FOR_URI(STR(?updateDate)))) As ?hasLegalName)
+}</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementabstraction/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity a :LegalEntity;
+?hasLegalName ?legalName .
+?hasLegalName :updateDate ?updateDate .
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementabstraction/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity;
+?hasLegalName1 ?legalName1 ;
+?hasLegalName2 ?legalName2 .
+?hasLegalName1 :updateDate ?updateDate1 .
+?hasLegalName2 :updateDate ?updateDate2 .
+?hasLegalName1 rdfs:subPropertyOf :hasLegalName.
+?hasLegalName2 rdfs:subPropertyOf :hasLegalName.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/situation/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?manifestation1 :hasParticipant ?legalEntity .
+?manifestation2 :hasParticipant ?legalEntity .
+?legalEntity a :LegalEntity.
+?manifestation1 :hasUpdateDate ?updateDate1 ;
+:hasLegalEntityLegalName ?legalName1.
+?manifestation2 :hasUpdateDate ?updateDate2 ;
+:hasLegalEntityLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/situation/&gt;
+SELECT ?legalEntity (count(distinct ?manifestation) as ?countChanges) 
+WHERE 
+{
+?manifestation :hasParticipant ?legalEntity .
+?legalEntity a :LegalEntity .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/tropes/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?relatorLegalName :mediates ?legalEntity , ?legalNameIRI .
+?relatorLegalNameTE a :TemporalExtent ;
+              :hasUpdateDate ?updateDate .
+?legalNameIRI a :LegalName ;
+      :inhareIn ?legalEntity ;
+      :hasTimeExtent ?relatorLegalNameTE ;
+      :hasLegalName ?legalName .              
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/history/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+?legalNameObject a :LegalName ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalNameHistory ;
+                :hasLegalName ?legalName .
+?product a &lt;http://purl.obolibrary.org/obo/BFO_0000015&gt; ;
+            :hasUpdateDate ?updateDate ;
+   &lt;http://purl.obolibrary.org/obo/BFO_0000132&gt; ?legalEntityHistory, ?legalNameHistory .                 
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/history/&gt;
+SELECT ?legalEntity (count(distinct ?product) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+?product a &lt;http://purl.obolibrary.org/obo/BFO_0000015&gt; ;
+            :hasUpdateDate ?updateDate ;
+   &lt;http://purl.obolibrary.org/obo/BFO_0000132&gt; ?legalEntityHistory . 
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>http://onto.kul.pl/change/history/</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/history/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+?legalNameObject1 a :LegalName ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalNameHistory1 ;
+                :hasLegalName ?legalName1 .
+?legalNameObject2 a :LegalName ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalNameHistory2 ;
+                :hasLegalName ?legalName2 .
+?product1 a &lt;http://purl.obolibrary.org/obo/BFO_0000015&gt; ;
+            :hasUpdateDate ?updateDate1  ;
+   &lt;http://purl.obolibrary.org/obo/BFO_0000132&gt; ?legalEntityHistory, ?legalNameHistory1 .  
+?product2 a &lt;http://purl.obolibrary.org/obo/BFO_0000015&gt; ;
+            :hasUpdateDate ?updateDate2 ;
+   &lt;http://purl.obolibrary.org/obo/BFO_0000132&gt; ?legalEntityHistory, ?legalNameHistory2 .  
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX history: &lt;http://onto.kul.pl/change/history/&gt;
+ CONSTRUCT {
+ ?legalEntity a history:LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+ ?legalEntityHistory a &lt;http://purl.obolibrary.org/obo/BFO_0000182&gt; .
+ ?headquartersAddress a &lt;http://purl.obolibrary.org/obo/BFO_0000006&gt; ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?headquartersAddressHistory ;
+                      history:hasCity ?city ;
+                      history:hasCountry ?country ;
+                      history:hasPostalCode ?postalCode ;
+                      history:hasStreetAddress ?streetAddress ;
+                      history:hasSubdivision ?subdivision .
+ ?legalNameObject  a history:LegalName ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalNameHistory ;
+                history:hasLegalName ?legalName .
+ ?headquartersAddressHistory a &lt;http://purl.obolibrary.org/obo/BFO_0000182&gt; .
+ ?legalNameHistory a &lt;http://purl.obolibrary.org/obo/BFO_0000182&gt; .
+ ?product a &lt;http://purl.obolibrary.org/obo/BFO_0000015&gt; ;
+                history:hasUpdateDate ?updateDate ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000132&gt; ?legalEntityHistory, ?headquartersAddressHistory, ?legalNameHistory . 
+ ?country a &lt;http://purl.obolibrary.org/obo/BFO_0000030&gt; .
+ ?subdivision a &lt;http://purl.obolibrary.org/obo/BFO_0000030&gt; . 
+ history:LegalEntity a rdfs:Class . 
+ history:LegalName a rdfs:Class . 
+ history:hasCountry a owl:ObjectProperty .  
+ history:hasSubdivision a owl:ObjectProperty . 
+ history:hasUpdateDate a owl:DatatypeProperty .  
+ history:hasLegalName a owl:DatatypeProperty .
+ history:hasCity a owl:DatatypeProperty .
+ history:hasPostalCode a owl:DatatypeProperty .
+ history:hasStreetAddress a owl:DatatypeProperty .
+ }
+ WHERE {
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName
+} .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+BIND(IRI(CONCAT(STR(?manifestation), "_ProductHistoriesHQAddressLegalName_", ENCODE_FOR_URI(STR(?updateDate)))) As ?product )
+BIND(IRI(CONCAT(STR(?legalEntity),"_history")) as ?legalEntityHistory) 
+BIND(IRI(CONCAT(STR(?headquartersAddress),"_history")) as ?headquartersAddressHistory) 
+BIND(IRI(CONCAT(STR("http://onto.kul.pl/change/history/"), "_", ENCODE_FOR_URI(STR(?legalName)),"_history")) as ?legalNameHistory)
+BIND(IRI(CONCAT(STR("http://onto.kul.pl/change/history/"), "_", ENCODE_FOR_URI(STR(?legalName)),"_object")) as ?legalNameObject)  
+ } 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX pi:&lt;http://onto.kul.pl/change/perdurantism_individualconcept/&gt;
+CONSTRUCT 
+{
+?legalEntity a pi:LegalEntity ;
+ pi:hasTemporalPart ?manifestation .
+?manifestation a pi:LegalEntityTemporalSlice ;
+ pi:hasUpdateDate ?updateDate ;
+ pi:hasLegalName ?legalName ;
+ pi:hasHeadquartersAddress ?headquartersAddress .
+?headquartersAddress a pi:Address ;
+ pi:hasCity ?city ;
+ pi:hasCountry ?country ;
+ pi:hasPostalCode ?postalCode ;
+ pi:hasStreetAddress ?streetAddress ;
+ pi:hasSubdivision ?subdivision .
+pi:IndividualConcept a rdfs:Class .
+pi:LegalEntity a rdfs:Class ;
+ rdfs:subClassOf pi:IndividualConcept .
+pi:LegalEntityTemporalSlice a rdfs:Class ;
+ rdfs:subClassOf pi:TimeSlice .
+pi:Address a rdfs:Class ;
+ rdfs:subClassOf pi:IndividualConcept .
+pi:hasHeadquartersAddress a owl:ObjectProperty . 
+pi:hasTemporalPart a owl:ObjectProperty .  
+pi:hasCountry a owl:ObjectProperty .  
+pi:hasSubdivision a owl:ObjectProperty . 
+pi:hasLegalName a owl:DatatypeProperty .
+pi:hasCity a owl:DatatypeProperty .
+pi:hasPostalCode a owl:DatatypeProperty .
+pi:hasStreetAddress a owl:DatatypeProperty .
+pi:hasUpdateDate a owl:DatatypeProperty.
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress 
+} .
+OPTIONAL 
+{
+?manifestation :hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX p:&lt;http://onto.kul.pl/change/perdurantism/&gt;
+CONSTRUCT 
+{
+?legalEntity a p:LegalEntity ;
+ p:hasTemporalPart ?manifestation .
+?manifestation a p:LegalEntity ;
+ p:updateDate ?updateDate ;
+ p:hasLegalName ?legalName ;
+ p:hasHeadquartersAddress ?headquartersAddress .
+?headquartersAddress a p:Address ;
+ p:hasCity ?city ;
+ p:hasCountry ?country ;
+ p:hasPostalCode ?postalCode ;
+ p:hasStreetAddress ?streetAddress ;
+ p:hasSubdivision ?subdivision .
+p:LegalEntity a rdfs:Class .
+p:Address a rdfs:Class .
+p:hasHeadquartersAddress a owl:ObjectProperty . 
+p:hasTemporalPart a owl:ObjectProperty .  
+p:hasCountry a owl:ObjectProperty .  
+p:hasSubdivision a owl:ObjectProperty . 
+p:hasLegalName a owl:DatatypeProperty .
+p:hasCity a owl:DatatypeProperty .
+p:hasPostalCode a owl:DatatypeProperty .
+p:hasStreetAddress a owl:DatatypeProperty .
+p:updateDate a owl:DatatypeProperty.
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress .
+} .
+OPTIONAL 
+{
+?manifestation :hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+}
+</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/perdurantism/&gt;
+SELECT DISTINCT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity :hasTemporalPart ?legalEntitySlice  .
+?legalEntitySlice :updateDate ?updateDate ;
+:hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/perdurantism/&gt;
+SELECT ?legalEntity (count(distinct ?legalEntitySlice1) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity .
+ ?legalEntity :hasTemporalPart  ?legalEntitySlice1.
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/perdurantism/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?legalEntity :hasTemporalPart  ?legalEntitySlice1.
+?legalEntitySlice1 :updateDate ?updateDate1 ;
+:hasLegalName ?legalName1.
+?legalEntity :hasTemporalPart  ?legalEntitySlice2.
+?legalEntitySlice2 :updateDate ?updateDate2 ;
+:hasLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/situation/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?manifestation :hasParticipant ?legalEntity;  
+:hasUpdateDate ?updateDate ;
+:hasLegalEntityLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/contextslice/&gt;
+SELECT ?legalEntity (count(distinct ?context) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasProjection ?entityContextSlice .
+?entityContextSlice :hasContex ?context .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX cs:&lt;http://onto.kul.pl/change/contextslice/&gt;
+CONSTRUCT 
+{
+?legalEntity a cs:LegalEntity ;
+   cs:hasProjection ?entityContextSlice .
+?entityContextSlice a cs:ContextSlice ;
+     cs:hasLegalName ?legalName ;
+     cs:hasContex ?context .
+?context a cs:Context ;
+  cs:updateDate ?updateDate .
+?headquartersAddress a cs:Address ;
+  cs:hasProjection ?headquartersAddressContextSlice .
+?headquartersAddressContextSlice a cs:ContextSlice ;
+     cs:hasContex ?context .
+?headquartersAddressContextSlice cs:hasCity ?city ;
+cs:hasCountry ?country ;
+cs:hasPostalCode ?postalCode ;
+cs:hasStreetAddress ?streetAddress ;
+cs:hasSubdivision ?subdivision .
+cs:LegalEntity a rdfs:Class .
+cs:ContextSlice a rdfs:Class .
+cs:Address a rdfs:Class .
+cs:hasCountry a owl:ObjectProperty .  
+cs:hasSubdivision a owl:ObjectProperty . 
+cs:hasLegalName a owl:DatatypeProperty .
+cs:hasCity a owl:DatatypeProperty .
+cs:hasPostalCode a owl:DatatypeProperty .
+cs:hasStreetAddress a owl:DatatypeProperty .
+cs:updateDate a owl:DatatypeProperty .
+}
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress ;
+:hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+BIND(IRI(CONCAT(STR(?legalEntity), "ContextSlice_", ENCODE_FOR_URI(STR(?updateDate)))) As ?entityContextSlice )
+BIND(IRI(CONCAT(STR(?headquartersAddress), "ContextSlice_", ENCODE_FOR_URI(STR(?updateDate)))) As ?headquartersAddressContextSlice )
+BIND(IRI(CONCAT(STR(?legalEntity), "GeneralContextSlice_", ENCODE_FOR_URI(STR(?updateDate)))) As ?context )
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX sit: &lt;http://onto.kul.pl/change/situation/&gt;
+CONSTRUCT {
+?legalEntity a sit:LegalEntity .
+?manifestation a sit:LegalEntitySituation ;
+   sit:hasParticipant ?legalEntity ; 
+            sit:hasUpdateDate ?updateDate ;
+            sit:hasLegalEntityHeadquartersAddress ?headquartersAddress ;
+            sit:hasLegalEntityLegalName ?legalName.
+?headquartersAddress a sit:Address ;
+                     sit:hasCity ?city ;
+                     sit:hasCountry ?country ;
+                     sit:hasPostalCode ?postalCode ;
+                     sit:hasStreetAddress ?streetAddress ;
+                     sit:hasSubdivision ?subdivision .
+?country a sit:Country .
+?subdivision a sit:Subdivision . 
+sit:hasParticipant a owl:ObjectProperty .  
+sit:hasLegalEntityHeadquartersAddress a owl:ObjectProperty .  
+sit:hasReficationRelation a owl:ObjectProperty .  
+sit:hasCountry a owl:ObjectProperty .  
+sit:hasSubdivision a owl:ObjectProperty . 
+sit:hasUpdateDate a owl:DatatypeProperty .  
+sit:hasLegalEntityLegalName a owl:DatatypeProperty .
+sit:hasCity a owl:DatatypeProperty .
+sit:hasPostalCode a owl:DatatypeProperty .
+sit:hasStreetAddress a owl:DatatypeProperty .
+}
+WHERE {
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress  .
+} 
+OPTIONAL 
+{
+?manifestation :hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://lei.info/gleio/&gt;
+PREFIX reif: &lt;http://onto.kul.pl/change/reification/&gt;
+CONSTRUCT {
+?legalEntity a reif:LegalEntity ;
+        reif:hasReificationRelation ?manifestation.
+?manifestation a reif:ReificationRelation ;
+            reif:hasReificationRelationCreationDate ?updateDate ;
+            reif:hasLegalEntityHeadquartersAddress ?headquartersAddress ;
+            reif:hasLegalEntityLegalName ?legalName.
+?headquartersAddress a reif:Address ;
+                     reif:hasCity ?city ;
+                     reif:hasCountry ?country ;
+                     reif:hasPostalCode ?postalCode ;
+                     reif:hasStreetAddress ?streetAddress ;
+                     reif:hasSubdivision ?subdivision .
+?country a reif:Country .
+?subdivision a reif:Subdivision . 
+reif:hasLegalEntityHeadquartersAddress a owl:ObjectProperty .  
+reif:hasReificationRelation a owl:ObjectProperty .  
+reif:hasCountry a owl:ObjectProperty .  
+reif:hasSubdivision a owl:ObjectProperty . 
+reif:hasReificationRelationCreationDate a owl:DatatypeProperty .  
+reif:hasLegalEntityLegalName a owl:DatatypeProperty .
+reif:hasCity a owl:DatatypeProperty .
+reif:hasPostalCode a owl:DatatypeProperty .
+reif:hasStreetAddress a owl:DatatypeProperty .
+}
+WHERE {
+?legalEntity a :LegalEntity ;
+:hasManifestation ?manifestation.
+?manifestation :hasUpdateDate ?updateDate .
+OPTIONAL 
+{
+?manifestation :hasHeadquartersAddress ?headquartersAddress  .
+} 
+OPTIONAL 
+{
+?manifestation :hasLegalName ?legalName .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCity ?city .
+}
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasCountry ?country  .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasPostalCode ?postalCode .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasStreetAddress ?streetAddress .
+} 
+OPTIONAL 
+{
+?headquartersAddress a :Address ;
+:hasSubdivision ?subdivision .
+}
+} </t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/reification/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity;
+  :hasReificationRelation ?manifestation1, ?manifestation2.
+?manifestation1 :hasReificationRelationCreationDate ?updateDate1 ;
+:hasLegalEntityLegalName ?legalName1.
+?manifestation2 :hasReificationRelationCreationDate ?updateDate2 ;
+:hasLegalEntityLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/reification/&gt;
+SELECT ?legalEntity (count(distinct ?manifestation) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity; 
+             :hasReificationRelation ?manifestation .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/bfo-tqc/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+?legalEntityHistory &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase .
+?legalEntityPhase &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation .
+?manifestation :hasUpdateDate ?updateDate ;
+  :hasLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PREFIX : &lt;http://onto.kul.pl/change/reification/&gt;
+SELECT ?legalName ?updateDate
+WHERE 
+{
+?legalEntity :hasReificationRelation ?manifestation.
+?manifestation :hasReificationRelationCreationDate ?updateDate ;
+            :hasLegalEntityLegalName ?legalName.
+FILTER (STR(?legalEntity)="http://lei.info/549300U5FI25Y6MFOS85#entity")
+FILTER (?updateDate &lt; "2016-09-23T10:20:13+05:30"^^xsd:dateTime)
+}
+ORDER BY DESC(?updateDate)
+LIMIT 1
+</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/bfo-tqc/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?legalEntity a :LegalEntity;
+  &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory1 , ?legalEntityHistory2 .
+?legalEntityHistory1 &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase1 .  
+?legalEntityPhase1 &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation1 .
+?legalEntityHistory2 &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase2 .  
+?legalEntityPhase2 &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation2 .
+?manifestation1 :hasUpdateDate ?updateDate1 ;
+:hasLegalName ?legalName1.
+?manifestation2 :hasUpdateDate ?updateDate2 ;
+:hasLegalName ?legalName2.
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/tropes/&gt;
+SELECT DISTINCT ?legalEntity ?legalName1 ?updateDate1 ?legalName2 ?updateDate2
+WHERE 
+{
+?relatorLegalName :mediates ?legalEntity , ?legalNameIRI1 .
+?legalNameIRI1 a :LegalName ;
+      :inhareIn ?legalEntity ;
+      :hasTimeExtent ?relatorLegalNameTE1 ;
+      :hasLegalName ?legalName1 . 
+?relatorLegalNameTE1 a :TemporalExtent ;
+              :hasUpdateDate ?updateDate1 .
+?relatorLegalName2 :mediates ?legalEntity , ?legalNameIRI2 .
+?relatorLegalNameTE2 a :TemporalExtent ;
+              :hasUpdateDate ?updateDate2 .
+?legalNameIRI2 a :LegalName ;
+      :inhareIn ?legalEntity ;
+      :hasTimeExtent ?relatorLegalNameTE2 ;
+      :hasLegalName ?legalName2 . 
+FILTER (STR(?legalName1) != STR(?legalName2))
+}</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/tropes/&gt;
+SELECT ?legalEntity (count(distinct ?objectTE) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :Object .
+?relator :mediates ?legalEntity, ?object.
+?object :hasTimeExtent ?objectTE .
+?objectTE a :TemporalExtent .
+}
+group by ?legalEntity
+order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/contextslice/&gt;
+SELECT DISTINCT ?legalEntity 
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+:hasProjection ?entityContextSlice .
+?entityContextSlice :hasContex ?context .
+?headquartersAddress a :Address ;
+  :hasProjection ?headquartersAddressContextSlice .
+?headquartersAddressContextSlice :hasContex ?context .
+?headquartersAddressContextSlice :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/history/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+ ?legalEntity a :LegalEntity ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+ ?headquartersAddress a &lt;http://purl.obolibrary.org/obo/BFO_0000006&gt; ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?headquartersAddressHistory ;
+                      :hasCity ?city .
+ ?product a &lt;http://purl.obolibrary.org/obo/BFO_0000015&gt; ;
+                :hasUpdateDate ?updateDate  ;
+                &lt;http://purl.obolibrary.org/obo/BFO_0000132&gt; ?legalEntityHistory, ?headquartersAddressHistory . 
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://lei.info/gleio/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity;
 :hasManifestation ?manifestation .
-?manifestation :hasHeadquartersAddress ?headquartersAddress ;
-:hasUpdateDate ?updateDate ;
-:hasLegalName ?legalName.
-?headquartersAddress a :Address ;
-:hasCity ?city ;
-:hasCountry ?country ;
-:hasPostalCode ?postalCode ;
-:hasStreetAddress ?streetAddress ;
-:hasSubdivision ?subdivision .
-}</t>
-  </si>
-  <si>
-    <t>http://onto.kul.pl/change/gfo</t>
+?manifestation :hasHeadquartersAddress ?headquartersAddress .
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/namenesting/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?legalEntityAddressBlob a :LegalEntityAddressBlob;
+:hasHeadquartersAddress ?headquartersAddress ;
+:hasEntity ?legalEntity.
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/perdurantism_individualconcept/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity ;
+ :hasTemporalPart ?manifestation .
+?manifestation :hasHeadquartersAddress ?headquartersAddress .
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/perdurantism/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?legalEntity :hasTemporalPart ?legalEntitySlice.
+?legalEntitySlice :hasHeadquartersAddress ?addressSlice.
+?addressSlice :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/reification/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+ ?legalEntity :hasReificationRelation ?manifestation.
+ ?manifestation :hasLegalEntityHeadquartersAddress ?headquartersAddress .
+ ?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/situation/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+ ?manifestation :hasParticipant ?legalEntity ;
+       :hasLegalEntityHeadquartersAddress ?headquartersAddress .
+  ?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementabstraction/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity;
+?hasHeadquartersAddress ?headquartersAddress.
+?hasHeadquartersAddress rdfs:subPropertyOf :hasHeadquartersAddress.
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementreification/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?axiom rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasHeadquartersAddress ;
+owl:annotatedTarget ?headquartersAddress .
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/states/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity a :LegalEntity;
+:participatesIn ?entityState .
+?headquartersAddress a :Address ;
+:participatesIn ?entityState .
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/bfo-tqc/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?legalEntity &lt;http://purl.obolibrary.org/obo/BFO_0000185&gt; ?legalEntityHistory .
+?legalEntityHistory &lt;http://purl.obolibrary.org/obo/BFO_0000117&gt; ?legalEntityPhase  .
+?legalEntityPhase &lt;http://www.halbordnung.de/ontologies/tqc.owl#1669f0c5-4cde-5cbc-94e3-ffb2281d885a&gt; ?manifestation .
+?manifestation :hasHeadquartersAddress ?headquartersAddress .
+?headquartersAddress :hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX : &lt;http://onto.kul.pl/change/tropes/&gt;
+SELECT DISTINCT ?legalEntity
+WHERE 
+{
+?relatorHeadquartersAddress :mediates ?legalEntity , ?headquartersAddress .
+?relatorHeadquartersAddressTE a :TemporalExtent ;
+       :hasUpdateDate ?updateDate .
+?headquartersAddress a :Address ;
+:inhareIn ?legalEntity ;
+:hasTimeExtent ?relatorHeadquartersAddressTE ;
+:hasCity ?city .
+}
+GROUP BY ?legalEntity
+HAVING (COUNT(DISTINCT ?city) &lt;=1)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/namenesting/&gt;
+SELECT ?legalEntity ((count(distinct ?legalEntityAddressBlob)+count(distinct ?legalEntityNameBlob)) as ?countChanges)
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?legalEntityAddressBlob a :LegalEntityAddressBlob;
+:updateDate ?updateDate ;
+:hasEntity ?legalEntity.
+?legalEntityNameBlob a :LegalEntityNameBlob;
+:updateDate ?updateDate ;
+:hasEntity ?legalEntity.
+}
+group by ?legalEntity  order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX  :&lt;http://onto.kul.pl/change/statementabstraction/&gt;
+SELECT ?legalEntity ((count(distinct ?hasHeadquartersAddress)+count(distinct ?hasLegalName )) as ?countChanges)
+{
+?legalEntity a :LegalEntity;
+?hasHeadquartersAddress ?headquartersAddress ;
+?hasLegalName ?legalName .
+?hasHeadquartersAddress rdfs:subPropertyOf :hasHeadquartersAddress .
+?hasLegalName rdfs:subPropertyOf :hasLegalName .
+}
+group by ?legalEntity order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t>PREFIX :&lt;http://onto.kul.pl/change/statementreification/&gt;
+SELECT ?legalEntity ((count(distinct ?axiom1)+count(distinct ?axiom2)) as ?countChanges)
+WHERE 
+{
+?legalEntity a :LegalEntity.
+?axiom1 rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasLegalName .
+?axiom2 rdf:type owl:Axiom ;
+owl:annotatedSource ?legalEntity ;
+owl:annotatedProperty :hasHeadquartersAddress .
+}
+group by ?legalEntity  order by DESC(?countChanges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX : &lt;http://onto.kul.pl/change/states/&gt;
+SELECT ?legalEntity (count(distinct ?entityState) as ?countChanges) 
+WHERE 
+{
+?legalEntity a :LegalEntity;
+            :participatesIn ?entityState .
+}
+group by ?legalEntity 
+order by DESC(?countChanges) </t>
   </si>
 </sst>
 </file>
@@ -328,6 +1865,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,27 +1906,23 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +1935,13 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -404,55 +1949,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="20">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -460,6 +2054,8 @@
     <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8"/>
+    <cellStyle name="Neutralne" xfId="16" builtinId="28"/>
     <cellStyle name="Norm." xfId="0" builtinId="0"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="4" builtinId="9" hidden="1"/>
@@ -468,15 +2064,70 @@
     <cellStyle name="Odwiedzone hiperłącze" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="19" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:G14"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ontology name"/>
+    <tableColumn id="2" name="construct query"/>
+    <tableColumn id="3" name="context"/>
+    <tableColumn id="4" name="Find lei's legal name before 2016-09-23T10:20:13+05:30 (lei=549300U5FI25Y6MFOS85)" dataDxfId="3"/>
+    <tableColumn id="5" name="Find all LEs whose legal name has (ever) changed" dataDxfId="2"/>
+    <tableColumn id="6" name="Find all LEs that never moved to another city" dataDxfId="1"/>
+    <tableColumn id="7" name="Count all changes of LEs" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,110 +2393,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="86" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="6" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
+    <row r="13" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+    <row r="14" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://onto.kul.pl/change/gfo/"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2" display="http://onto.kul.pl/change/temporalisedrelations/"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C14" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6" display="http://onto.kul.pl/change/simple4d/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>